--- a/data/trans_orig/PCS12_SP-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Clase-trans_orig.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>53.21090201192901</v>
+        <v>53.21090201192902</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>53.88933539008111</v>
@@ -672,7 +672,7 @@
         <v>52.93752584324719</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>51.99477942398673</v>
+        <v>51.99477942398672</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>52.88414745721471</v>
@@ -681,19 +681,19 @@
         <v>52.96432670427178</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>52.03607706766419</v>
+        <v>52.03607706766418</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>52.73302683397294</v>
+        <v>52.73302683397293</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53.46882145417045</v>
+        <v>53.46882145417046</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>53.28526410725838</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>52.51351600427197</v>
+        <v>52.51351600427196</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>52.38804413741145</v>
+        <v>52.34488582206352</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>53.27700575762886</v>
+        <v>53.23039836066521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52.77982021406731</v>
+        <v>52.73634762357225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52.2872657039634</v>
+        <v>52.32823947025732</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>50.87415184705275</v>
+        <v>50.86669307663943</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>51.93566173127868</v>
+        <v>51.84274355234874</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>51.89567249863655</v>
+        <v>51.74756686656776</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>51.41919729501519</v>
+        <v>51.41039977491992</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>52.14014483685551</v>
+        <v>52.04327302539793</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52.93423368396734</v>
+        <v>52.96594358331885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52.63102623399303</v>
+        <v>52.68394886945546</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>52.05593717520782</v>
+        <v>52.00887598361445</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53.8881745759555</v>
+        <v>53.84329004906843</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>54.39890556863232</v>
+        <v>54.41927584820301</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54.16503816813473</v>
+        <v>54.15749483222594</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53.44403895637576</v>
+        <v>53.47814509430813</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>52.9317920956219</v>
+        <v>52.87769546126648</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>53.65509568685386</v>
+        <v>53.59611474824836</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>53.85825738922031</v>
+        <v>53.68693147780981</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>52.67235981232013</v>
+        <v>52.67861768317747</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>53.29363184613802</v>
+        <v>53.275229604869</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53.92821631041434</v>
+        <v>53.91380441536787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53.77132486512365</v>
+        <v>53.86932556951956</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>52.92802607314763</v>
+        <v>52.90907690991849</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         <v>53.99594562825379</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>52.90878113498595</v>
+        <v>52.90878113498594</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>53.85622873100215</v>
@@ -808,7 +808,7 @@
         <v>52.49495388500102</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>53.45832682927173</v>
+        <v>53.45832682927175</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>53.0497255420437</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>53.14590250221792</v>
+        <v>53.31767034970029</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.88385717110207</v>
+        <v>52.02227457183373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53.04163924045647</v>
+        <v>52.98343669958687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51.83160714293718</v>
+        <v>51.76334223694811</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>52.65064526009653</v>
+        <v>52.59458797132933</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>52.15665069591456</v>
+        <v>52.05067812795765</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>52.06833112470092</v>
+        <v>52.12326879056798</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>50.93637284776516</v>
+        <v>50.91785902354375</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>53.28724180525671</v>
+        <v>53.22342443963037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52.35853006123546</v>
+        <v>52.2974452094665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52.86710816027168</v>
+        <v>52.8641674679067</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>51.58366616600517</v>
+        <v>51.64914293146367</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>54.54130439555885</v>
+        <v>54.5286802524177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>53.60976546273648</v>
+        <v>53.62842121447048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>54.45400115130128</v>
+        <v>54.4364420656125</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53.07644803132121</v>
+        <v>53.17008879319145</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>54.10778519676418</v>
+        <v>54.09751873661483</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>53.80104451004487</v>
+        <v>53.75090617301722</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>53.8422968022995</v>
+        <v>53.8228846979742</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>52.34725363149862</v>
+        <v>52.33858525104502</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>54.15508271290957</v>
+        <v>54.14490283020572</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53.45841920672506</v>
+        <v>53.47394878939916</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53.98860342890672</v>
+        <v>54.00323688069801</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>52.57240154384</v>
+        <v>52.55992364478724</v>
       </c>
     </row>
     <row r="10">
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>52.87273317006206</v>
+        <v>52.87273317006207</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>51.35629567367538</v>
+        <v>51.35629567367537</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>52.54254725626827</v>
@@ -953,7 +953,7 @@
         <v>49.85701977062949</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>47.93921212091306</v>
+        <v>47.93921212091305</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>52.13154681594332</v>
@@ -962,10 +962,10 @@
         <v>50.97152599064355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51.8941407257775</v>
+        <v>51.89414072577751</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>50.08381988256611</v>
+        <v>50.08381988256613</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>52.24998932910838</v>
+        <v>52.19924417746179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>50.47596606604431</v>
+        <v>50.41075268246337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51.86723240975122</v>
+        <v>51.76802711093747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>50.13316307969911</v>
+        <v>50.04330153111779</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>48.08868653173981</v>
+        <v>47.98142694463996</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>48.74126889522054</v>
+        <v>48.80785013883418</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>48.08296192057123</v>
+        <v>48.03629506197446</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>46.59424693627192</v>
+        <v>46.50425271501585</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>51.47974950806837</v>
+        <v>51.49062657254128</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50.33749849150495</v>
+        <v>50.19302115581348</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.20254651240565</v>
+        <v>51.24244979151879</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>49.41754440026613</v>
+        <v>49.43510550054746</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.43922205742545</v>
+        <v>53.4230998103102</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>52.09324271040829</v>
+        <v>52.05763703582511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.16864629962406</v>
+        <v>53.12657671241008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51.74765306282141</v>
+        <v>51.65079304842294</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>51.18933319224369</v>
+        <v>51.09973937319112</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>51.17519791334648</v>
+        <v>51.23642724624106</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>51.46379298922002</v>
+        <v>51.43860588116373</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>49.27673814460985</v>
+        <v>49.36189802779613</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>52.72365317451047</v>
+        <v>52.68813099028688</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.60313706012337</v>
+        <v>51.55177667718181</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.52341029744947</v>
+        <v>52.54194501115021</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>50.77893134242858</v>
+        <v>50.7880533121574</v>
       </c>
     </row>
     <row r="13">
@@ -1080,7 +1080,7 @@
         <v>50.39127716596551</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>51.30228589889045</v>
+        <v>51.30228589889044</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>51.64228323736359</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>51.50331858860152</v>
+        <v>51.49548884447485</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>50.89627868167074</v>
+        <v>50.90359943203907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51.50933394983664</v>
+        <v>51.46418271802608</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49.80090814609817</v>
+        <v>49.76394116604025</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50.5970760570935</v>
+        <v>50.57095050957318</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>50.97544704458926</v>
+        <v>50.93733876780408</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>51.25777562242149</v>
+        <v>51.13599661506629</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>50.05329446886858</v>
+        <v>50.01762329058718</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.33040187280923</v>
+        <v>51.31541354373883</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51.09389653810322</v>
+        <v>51.11399620118058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.573737235729</v>
+        <v>51.5501437981477</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>50.01497045367825</v>
+        <v>50.03263183589969</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>52.38994886385753</v>
+        <v>52.3547137101537</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.04367200716983</v>
+        <v>51.99553152751773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.55566296403843</v>
+        <v>52.52077567232669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50.93421049806729</v>
+        <v>50.98417355886178</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>51.92569305973244</v>
+        <v>51.91478570751604</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>52.29461513498475</v>
+        <v>52.2792311848201</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>52.53648819750253</v>
+        <v>52.52276393784391</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>51.06776753310066</v>
+        <v>51.03903857150058</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>52.07848916502372</v>
+        <v>52.05545036036153</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51.94927296784972</v>
+        <v>51.95252924840259</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52.3820224859728</v>
+        <v>52.42958961652812</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.83011646516078</v>
+        <v>50.83851026333637</v>
       </c>
     </row>
     <row r="16">
@@ -1213,16 +1213,16 @@
         <v>51.31476149574652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50.2923487936428</v>
+        <v>50.29234879364281</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>50.43701700390464</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>47.72833338776598</v>
+        <v>47.72833338776599</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>48.9947147404946</v>
+        <v>48.99471474049459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47.35187584218886</v>
@@ -1237,7 +1237,7 @@
         <v>50.05440542349186</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>48.54368588890802</v>
+        <v>48.543685888908</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>50.96482894940403</v>
+        <v>50.87450999410551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>50.93255364835974</v>
+        <v>50.9318836521816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50.58624276122445</v>
+        <v>50.52040913807315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49.38686933636811</v>
+        <v>49.39407659947339</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>49.63589140151154</v>
+        <v>49.59727209065378</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.81033488081269</v>
+        <v>46.88959719775529</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>48.10124770435461</v>
+        <v>48.13617237699552</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>46.75800051231052</v>
+        <v>46.74082048441163</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>50.36257911589595</v>
+        <v>50.36060429299172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48.71604810084266</v>
+        <v>48.75268583347331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49.45798433556714</v>
+        <v>49.39633777022647</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>48.04351658371855</v>
+        <v>48.03582832073425</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>52.68146887209185</v>
+        <v>52.60781081120076</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.51564784894454</v>
+        <v>52.45225340402278</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.02830779574796</v>
+        <v>52.05426799450056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51.01761924039557</v>
+        <v>51.00941013692275</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>51.22987795844919</v>
+        <v>51.12450953761045</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>48.53121854164414</v>
+        <v>48.47922107460185</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>49.80948675303427</v>
+        <v>49.76655505136794</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>47.95310915236927</v>
+        <v>47.97632428030929</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.52163944062823</v>
+        <v>51.46427677717615</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49.91781377602062</v>
+        <v>49.90527010833897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50.61230259162243</v>
+        <v>50.59744842344311</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>48.99675120652368</v>
+        <v>49.0366363319715</v>
       </c>
     </row>
     <row r="19">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>55.33521753898209</v>
+        <v>55.3352175389821</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>55.06162264197469</v>
@@ -1355,7 +1355,7 @@
         <v>48.54584107256106</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>47.90677652795916</v>
+        <v>47.90677652795915</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>48.5460389868713</v>
@@ -1367,13 +1367,13 @@
         <v>49.85459843892811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49.29425877856754</v>
+        <v>49.29425877856755</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>50.07100216081242</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>49.69583067870976</v>
+        <v>49.69583067870977</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>54.69983523221937</v>
+        <v>54.77905032731319</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>54.1419557336426</v>
+        <v>54.3090479193108</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55.19528621708046</v>
+        <v>55.20929716688519</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55.07104174415166</v>
+        <v>55.04926704365197</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>47.98962156885975</v>
+        <v>47.91536415882479</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>47.22461823514949</v>
+        <v>47.18274938951311</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>47.74532445109694</v>
+        <v>47.83743837251548</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>47.2564829937877</v>
+        <v>47.23768739835108</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>49.28965570141628</v>
+        <v>49.33189562042116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48.70778398570564</v>
+        <v>48.63479645165354</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49.46683927073867</v>
+        <v>49.43823010021715</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>49.09239245707854</v>
+        <v>49.06068147933367</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>55.73396840654927</v>
+        <v>55.75214316686017</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>55.56882222843811</v>
+        <v>55.61045498585617</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56.2022032010702</v>
+        <v>56.22349450305367</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56.25402017551341</v>
+        <v>56.22552313512981</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>49.09469965924777</v>
+        <v>49.10287521010697</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>48.57254309808896</v>
+        <v>48.60106927152854</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>49.18081536116537</v>
+        <v>49.27956021759275</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>48.68607767883299</v>
+        <v>48.69510210221028</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>50.32629904810926</v>
+        <v>50.30571063088641</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>49.88485527946589</v>
+        <v>49.82720956914767</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50.67540995167007</v>
+        <v>50.6427793380932</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>50.28606360631857</v>
+        <v>50.2849175846787</v>
       </c>
     </row>
     <row r="22">
@@ -1485,19 +1485,19 @@
         <v>52.69520764964903</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51.51835958326743</v>
+        <v>51.51835958326745</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>50.36004485674455</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>49.76207622185966</v>
+        <v>49.76207622185965</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>50.40107772662547</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>49.43123068825729</v>
+        <v>49.4312306882573</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>51.56635723254158</v>
@@ -1509,7 +1509,7 @@
         <v>51.52395316730589</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>50.44659348634577</v>
+        <v>50.44659348634576</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>52.53804131044296</v>
+        <v>52.52310625403791</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>51.9425856563418</v>
+        <v>51.95168863967445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52.41320003355521</v>
+        <v>52.40145811267831</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>51.23576387527864</v>
+        <v>51.24198387098178</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>50.05131738829144</v>
+        <v>50.01589607831103</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>49.39193084120141</v>
+        <v>49.40607769182749</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>50.03938790116537</v>
+        <v>50.04182456345398</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>49.15049049723915</v>
+        <v>49.14285569000967</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>51.35516541716885</v>
+        <v>51.35456350360423</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50.75691623744301</v>
+        <v>50.75847210065712</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>51.28772829155274</v>
+        <v>51.30572418907847</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>50.23632068631294</v>
+        <v>50.24154938201177</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>53.05951787716</v>
+        <v>53.04809370809211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>52.55825972826933</v>
+        <v>52.54631324594435</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>52.95510059361803</v>
+        <v>52.97955067114435</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51.79766990950746</v>
+        <v>51.79585417747519</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>50.67797073508802</v>
+        <v>50.6696760421989</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>50.09717798476152</v>
+        <v>50.10897887520851</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>50.75504275279653</v>
+        <v>50.7467586171773</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>49.71723678132317</v>
+        <v>49.70900842482128</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>51.77353841573901</v>
+        <v>51.76054544753411</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>51.24397051035657</v>
+        <v>51.2060987586765</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51.77198587886092</v>
+        <v>51.76619792515168</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>50.66158677699111</v>
+        <v>50.66185170949176</v>
       </c>
     </row>
     <row r="25">
